--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.400976666666667</v>
+        <v>0.06805433333333334</v>
       </c>
       <c r="H2">
-        <v>4.20293</v>
+        <v>0.204163</v>
       </c>
       <c r="I2">
-        <v>0.4231668317460957</v>
+        <v>0.01286726242426351</v>
       </c>
       <c r="J2">
-        <v>0.4286166496121378</v>
+        <v>0.01295654885662802</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6654570000000001</v>
+        <v>0.4756293333333333</v>
       </c>
       <c r="N2">
-        <v>1.996371</v>
+        <v>1.426888</v>
       </c>
       <c r="O2">
-        <v>0.4592369525951268</v>
+        <v>0.4551485584980385</v>
       </c>
       <c r="P2">
-        <v>0.4592369525951268</v>
+        <v>0.4551485584980385</v>
       </c>
       <c r="Q2">
-        <v>0.9322897296700001</v>
+        <v>0.03236863719377778</v>
       </c>
       <c r="R2">
-        <v>8.390607567030001</v>
+        <v>0.291317734744</v>
       </c>
       <c r="S2">
-        <v>0.1943338462504117</v>
+        <v>0.005856515944219514</v>
       </c>
       <c r="T2">
-        <v>0.1968366039994114</v>
+        <v>0.005897154535203652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.400976666666667</v>
+        <v>0.06805433333333334</v>
       </c>
       <c r="H3">
-        <v>4.20293</v>
+        <v>0.204163</v>
       </c>
       <c r="I3">
-        <v>0.4231668317460957</v>
+        <v>0.01286726242426351</v>
       </c>
       <c r="J3">
-        <v>0.4286166496121378</v>
+        <v>0.01295654885662802</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.414652</v>
+        <v>0.3753246666666667</v>
       </c>
       <c r="N3">
-        <v>1.243956</v>
+        <v>1.125974</v>
       </c>
       <c r="O3">
-        <v>0.2861545086571702</v>
+        <v>0.3591630478399639</v>
       </c>
       <c r="P3">
-        <v>0.2861545086571702</v>
+        <v>0.3591630478399639</v>
       </c>
       <c r="Q3">
-        <v>0.5809177767866668</v>
+        <v>0.02554246997355556</v>
       </c>
       <c r="R3">
-        <v>5.228259991080001</v>
+        <v>0.229882229762</v>
       </c>
       <c r="S3">
-        <v>0.1210910968183154</v>
+        <v>0.004621445189655126</v>
       </c>
       <c r="T3">
-        <v>0.1226505867720438</v>
+        <v>0.004653513576833919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.400976666666667</v>
+        <v>0.06805433333333334</v>
       </c>
       <c r="H4">
-        <v>4.20293</v>
+        <v>0.204163</v>
       </c>
       <c r="I4">
-        <v>0.4231668317460957</v>
+        <v>0.01286726242426351</v>
       </c>
       <c r="J4">
-        <v>0.4286166496121378</v>
+        <v>0.01295654885662802</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3689403333333333</v>
+        <v>0.194044</v>
       </c>
       <c r="N4">
-        <v>1.106821</v>
+        <v>0.582132</v>
       </c>
       <c r="O4">
-        <v>0.254608538747703</v>
+        <v>0.1856883936619974</v>
       </c>
       <c r="P4">
-        <v>0.2546085387477031</v>
+        <v>0.1856883936619974</v>
       </c>
       <c r="Q4">
-        <v>0.5168767983922221</v>
+        <v>0.01320553505733334</v>
       </c>
       <c r="R4">
-        <v>4.651891185529999</v>
+        <v>0.118849815516</v>
       </c>
       <c r="S4">
-        <v>0.1077418886773685</v>
+        <v>0.00238930129038887</v>
       </c>
       <c r="T4">
-        <v>0.1091294588406826</v>
+        <v>0.002405880744590446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.596085333333334</v>
+        <v>1.400976666666667</v>
       </c>
       <c r="H5">
-        <v>4.788256000000001</v>
+        <v>4.20293</v>
       </c>
       <c r="I5">
-        <v>0.4820996593112978</v>
+        <v>0.2648873853774182</v>
       </c>
       <c r="J5">
-        <v>0.4883084524855795</v>
+        <v>0.2667254492047413</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6654570000000001</v>
+        <v>0.4756293333333333</v>
       </c>
       <c r="N5">
-        <v>1.996371</v>
+        <v>1.426888</v>
       </c>
       <c r="O5">
-        <v>0.4592369525951268</v>
+        <v>0.4551485584980385</v>
       </c>
       <c r="P5">
-        <v>0.4592369525951268</v>
+        <v>0.4551485584980385</v>
       </c>
       <c r="Q5">
-        <v>1.062126157664</v>
+        <v>0.6663455979822223</v>
       </c>
       <c r="R5">
-        <v>9.559135418976002</v>
+        <v>5.99711038184</v>
       </c>
       <c r="S5">
-        <v>0.2213979783892693</v>
+        <v>0.1205631116188463</v>
       </c>
       <c r="T5">
-        <v>0.2242492856459198</v>
+        <v>0.1213997037202798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.596085333333334</v>
+        <v>1.400976666666667</v>
       </c>
       <c r="H6">
-        <v>4.788256000000001</v>
+        <v>4.20293</v>
       </c>
       <c r="I6">
-        <v>0.4820996593112978</v>
+        <v>0.2648873853774182</v>
       </c>
       <c r="J6">
-        <v>0.4883084524855795</v>
+        <v>0.2667254492047413</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.414652</v>
+        <v>0.3753246666666667</v>
       </c>
       <c r="N6">
-        <v>1.243956</v>
+        <v>1.125974</v>
       </c>
       <c r="O6">
-        <v>0.2861545086571702</v>
+        <v>0.3591630478399639</v>
       </c>
       <c r="P6">
-        <v>0.2861545086571702</v>
+        <v>0.3591630478399639</v>
       </c>
       <c r="Q6">
-        <v>0.6618199756373334</v>
+        <v>0.5258211004244445</v>
       </c>
       <c r="R6">
-        <v>5.956379780736001</v>
+        <v>4.732389903820001</v>
       </c>
       <c r="S6">
-        <v>0.1379549911340136</v>
+        <v>0.09513776066651261</v>
       </c>
       <c r="T6">
-        <v>0.1397316652941542</v>
+        <v>0.09579792527285838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.596085333333334</v>
+        <v>1.400976666666667</v>
       </c>
       <c r="H7">
-        <v>4.788256000000001</v>
+        <v>4.20293</v>
       </c>
       <c r="I7">
-        <v>0.4820996593112978</v>
+        <v>0.2648873853774182</v>
       </c>
       <c r="J7">
-        <v>0.4883084524855795</v>
+        <v>0.2667254492047413</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3689403333333333</v>
+        <v>0.194044</v>
       </c>
       <c r="N7">
-        <v>1.106821</v>
+        <v>0.582132</v>
       </c>
       <c r="O7">
-        <v>0.254608538747703</v>
+        <v>0.1856883936619974</v>
       </c>
       <c r="P7">
-        <v>0.2546085387477031</v>
+        <v>0.1856883936619974</v>
       </c>
       <c r="Q7">
-        <v>0.5888602549084444</v>
+        <v>0.2718511163066667</v>
       </c>
       <c r="R7">
-        <v>5.299742294176</v>
+        <v>2.44666004676</v>
       </c>
       <c r="S7">
-        <v>0.122746689788015</v>
+        <v>0.04918651309205924</v>
       </c>
       <c r="T7">
-        <v>0.1243275015455056</v>
+        <v>0.0495278202116031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1262855</v>
+        <v>2.224606</v>
       </c>
       <c r="H8">
-        <v>0.252571</v>
+        <v>6.673818000000001</v>
       </c>
       <c r="I8">
-        <v>0.03814470019520065</v>
+        <v>0.4206137624240114</v>
       </c>
       <c r="J8">
-        <v>0.02575730164651499</v>
+        <v>0.4235324176135906</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6654570000000001</v>
+        <v>0.4756293333333333</v>
       </c>
       <c r="N8">
-        <v>1.996371</v>
+        <v>1.426888</v>
       </c>
       <c r="O8">
-        <v>0.4592369525951268</v>
+        <v>0.4551485584980385</v>
       </c>
       <c r="P8">
-        <v>0.4592369525951268</v>
+        <v>0.4551485584980385</v>
       </c>
       <c r="Q8">
-        <v>0.08403756997350001</v>
+        <v>1.058087868709333</v>
       </c>
       <c r="R8">
-        <v>0.504225419841</v>
+        <v>9.522790818384001</v>
       </c>
       <c r="S8">
-        <v>0.01751745587529868</v>
+        <v>0.1914417476517253</v>
       </c>
       <c r="T8">
-        <v>0.01182870471521899</v>
+        <v>0.192770169354015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1262855</v>
+        <v>2.224606</v>
       </c>
       <c r="H9">
-        <v>0.252571</v>
+        <v>6.673818000000001</v>
       </c>
       <c r="I9">
-        <v>0.03814470019520065</v>
+        <v>0.4206137624240114</v>
       </c>
       <c r="J9">
-        <v>0.02575730164651499</v>
+        <v>0.4235324176135906</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.414652</v>
+        <v>0.3753246666666667</v>
       </c>
       <c r="N9">
-        <v>1.243956</v>
+        <v>1.125974</v>
       </c>
       <c r="O9">
-        <v>0.2861545086571702</v>
+        <v>0.3591630478399639</v>
       </c>
       <c r="P9">
-        <v>0.2861545086571702</v>
+        <v>0.3591630478399639</v>
       </c>
       <c r="Q9">
-        <v>0.052364535146</v>
+        <v>0.8349495054146667</v>
       </c>
       <c r="R9">
-        <v>0.314187210876</v>
+        <v>7.514545548732001</v>
       </c>
       <c r="S9">
-        <v>0.01091527794223271</v>
+        <v>0.1510689208756424</v>
       </c>
       <c r="T9">
-        <v>0.007370567996993017</v>
+        <v>0.1521171939691256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1262855</v>
+        <v>2.224606</v>
       </c>
       <c r="H10">
-        <v>0.252571</v>
+        <v>6.673818000000001</v>
       </c>
       <c r="I10">
-        <v>0.03814470019520065</v>
+        <v>0.4206137624240114</v>
       </c>
       <c r="J10">
-        <v>0.02575730164651499</v>
+        <v>0.4235324176135906</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3689403333333333</v>
+        <v>0.194044</v>
       </c>
       <c r="N10">
-        <v>1.106821</v>
+        <v>0.582132</v>
       </c>
       <c r="O10">
-        <v>0.254608538747703</v>
+        <v>0.1856883936619974</v>
       </c>
       <c r="P10">
-        <v>0.2546085387477031</v>
+        <v>0.1856883936619974</v>
       </c>
       <c r="Q10">
-        <v>0.04659181446516666</v>
+        <v>0.431671446664</v>
       </c>
       <c r="R10">
-        <v>0.2795508867909999</v>
+        <v>3.885043019976</v>
       </c>
       <c r="S10">
-        <v>0.009711966377669259</v>
+        <v>0.07810309389664369</v>
       </c>
       <c r="T10">
-        <v>0.006558028934302988</v>
+        <v>0.07864505429044991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.1873483333333333</v>
+        <v>0.109342</v>
       </c>
       <c r="H11">
-        <v>0.562045</v>
+        <v>0.218684</v>
       </c>
       <c r="I11">
-        <v>0.05658880874740582</v>
+        <v>0.02067366086892072</v>
       </c>
       <c r="J11">
-        <v>0.05731759625576776</v>
+        <v>0.01387807746831131</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6654570000000001</v>
+        <v>0.4756293333333333</v>
       </c>
       <c r="N11">
-        <v>1.996371</v>
+        <v>1.426888</v>
       </c>
       <c r="O11">
-        <v>0.4592369525951268</v>
+        <v>0.4551485584980385</v>
       </c>
       <c r="P11">
-        <v>0.4592369525951268</v>
+        <v>0.4551485584980385</v>
       </c>
       <c r="Q11">
-        <v>0.124672259855</v>
+        <v>0.05200626256533333</v>
       </c>
       <c r="R11">
-        <v>1.122050338695</v>
+        <v>0.3120375753919999</v>
       </c>
       <c r="S11">
-        <v>0.0259876720801471</v>
+        <v>0.009409586943366573</v>
       </c>
       <c r="T11">
-        <v>0.02632235823457664</v>
+        <v>0.006316586954426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.109342</v>
+      </c>
+      <c r="H12">
+        <v>0.218684</v>
+      </c>
+      <c r="I12">
+        <v>0.02067366086892072</v>
+      </c>
+      <c r="J12">
+        <v>0.01387807746831131</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.1873483333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.562045</v>
-      </c>
-      <c r="I12">
-        <v>0.05658880874740582</v>
-      </c>
-      <c r="J12">
-        <v>0.05731759625576776</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M12">
-        <v>0.414652</v>
+        <v>0.3753246666666667</v>
       </c>
       <c r="N12">
-        <v>1.243956</v>
+        <v>1.125974</v>
       </c>
       <c r="O12">
-        <v>0.2861545086571702</v>
+        <v>0.3591630478399639</v>
       </c>
       <c r="P12">
-        <v>0.2861545086571702</v>
+        <v>0.3591630478399639</v>
       </c>
       <c r="Q12">
-        <v>0.07768436111333334</v>
+        <v>0.04103874970266667</v>
       </c>
       <c r="R12">
-        <v>0.69915925002</v>
+        <v>0.246232498216</v>
       </c>
       <c r="S12">
-        <v>0.01619314276260848</v>
+        <v>0.007425215047691365</v>
       </c>
       <c r="T12">
-        <v>0.01640168859397928</v>
+        <v>0.00498449260167782</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.1873483333333333</v>
+        <v>0.109342</v>
       </c>
       <c r="H13">
-        <v>0.562045</v>
+        <v>0.218684</v>
       </c>
       <c r="I13">
-        <v>0.05658880874740582</v>
+        <v>0.02067366086892072</v>
       </c>
       <c r="J13">
-        <v>0.05731759625576776</v>
+        <v>0.01387807746831131</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3689403333333333</v>
+        <v>0.194044</v>
       </c>
       <c r="N13">
-        <v>1.106821</v>
+        <v>0.582132</v>
       </c>
       <c r="O13">
-        <v>0.254608538747703</v>
+        <v>0.1856883936619974</v>
       </c>
       <c r="P13">
-        <v>0.2546085387477031</v>
+        <v>0.1856883936619974</v>
       </c>
       <c r="Q13">
-        <v>0.06912035654944443</v>
+        <v>0.021217159048</v>
       </c>
       <c r="R13">
-        <v>0.6220832089449999</v>
+        <v>0.127302954288</v>
       </c>
       <c r="S13">
-        <v>0.01440799390465023</v>
+        <v>0.003838858877862783</v>
       </c>
       <c r="T13">
-        <v>0.01459354942721184</v>
+        <v>0.002576997912207486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.485973</v>
+      </c>
+      <c r="H14">
+        <v>4.457919</v>
+      </c>
+      <c r="I14">
+        <v>0.2809579289053862</v>
+      </c>
+      <c r="J14">
+        <v>0.2829075068567288</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4756293333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.426888</v>
+      </c>
+      <c r="O14">
+        <v>0.4551485584980385</v>
+      </c>
+      <c r="P14">
+        <v>0.4551485584980385</v>
+      </c>
+      <c r="Q14">
+        <v>0.7067723473413333</v>
+      </c>
+      <c r="R14">
+        <v>6.360951126072</v>
+      </c>
+      <c r="S14">
+        <v>0.1278775963398809</v>
+      </c>
+      <c r="T14">
+        <v>0.1287649439341141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.485973</v>
+      </c>
+      <c r="H15">
+        <v>4.457919</v>
+      </c>
+      <c r="I15">
+        <v>0.2809579289053862</v>
+      </c>
+      <c r="J15">
+        <v>0.2829075068567288</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.3753246666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.125974</v>
+      </c>
+      <c r="O15">
+        <v>0.3591630478399639</v>
+      </c>
+      <c r="P15">
+        <v>0.3591630478399639</v>
+      </c>
+      <c r="Q15">
+        <v>0.5577223209006668</v>
+      </c>
+      <c r="R15">
+        <v>5.019500888106001</v>
+      </c>
+      <c r="S15">
+        <v>0.1009097060604624</v>
+      </c>
+      <c r="T15">
+        <v>0.1016099224194682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.485973</v>
+      </c>
+      <c r="H16">
+        <v>4.457919</v>
+      </c>
+      <c r="I16">
+        <v>0.2809579289053862</v>
+      </c>
+      <c r="J16">
+        <v>0.2829075068567288</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.194044</v>
+      </c>
+      <c r="N16">
+        <v>0.582132</v>
+      </c>
+      <c r="O16">
+        <v>0.1856883936619974</v>
+      </c>
+      <c r="P16">
+        <v>0.1856883936619974</v>
+      </c>
+      <c r="Q16">
+        <v>0.288344144812</v>
+      </c>
+      <c r="R16">
+        <v>2.595097303308</v>
+      </c>
+      <c r="S16">
+        <v>0.05217062650504283</v>
+      </c>
+      <c r="T16">
+        <v>0.0525326405031465</v>
       </c>
     </row>
   </sheetData>
